--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murar\Downloads\Freelancing\Short-Straddle-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E58C08-4D05-46BD-88EF-5283931DD301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B1EF45-B781-42CA-82CC-62C91B1E49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>bqk4276qgftuplngvtik62fd6ecks9od</t>
   </si>
   <si>
-    <t>{'NFO:HDFCBANK':1,'NFO:INFY':1}</t>
+    <t>{'HDFCBANK':1,'INFY':1}</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murar\Downloads\Freelancing\Short-Straddle-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B1EF45-B781-42CA-82CC-62C91B1E49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCD73D-63DE-4E14-8E12-0D63A4B734F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>apisecret</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>ChaitanyaMurarka</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>{'HDFCBANK':1,'INFY':1}</t>
+  </si>
+  <si>
+    <t>short straddle</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -431,21 +431,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murar\Downloads\Freelancing\Short-Straddle-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCD73D-63DE-4E14-8E12-0D63A4B734F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C5256-EAE4-45E4-B843-C290E30C3B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>short straddle</t>
+  </si>
+  <si>
+    <t>long straddle</t>
+  </si>
+  <si>
+    <t>Long Straddle Status</t>
   </si>
 </sst>
 </file>
@@ -408,19 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" customWidth="1"/>
     <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +443,14 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>

--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murar\Downloads\Freelancing\Short-Straddle-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C5256-EAE4-45E4-B843-C290E30C3B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532012EB-3478-449A-B924-09F2C2D2190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>bqk4276qgftuplngvtik62fd6ecks9od</t>
   </si>
   <si>
-    <t>{'HDFCBANK':1,'INFY':1}</t>
-  </si>
-  <si>
     <t>short straddle</t>
   </si>
   <si>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>Long Straddle Status</t>
+  </si>
+  <si>
+    <t>{'RELIANCE':5,'HDFCBANK':2,'INFY':3,'SBIN':8,'BHARTIARTL':1}</t>
+  </si>
+  <si>
+    <t>{'HINDCOPPER':3,'ZEEL':4,'RECLTD':5,'RBLBANK':2,'INDIACEM':2}</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
 </sst>
 </file>
@@ -417,16 +423,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -441,16 +447,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -461,7 +467,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murar\Downloads\Freelancing\Short-Straddle-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532012EB-3478-449A-B924-09F2C2D2190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6024DCE-8EBA-4BDF-94F8-AA3F3D73F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>{'RELIANCE':5,'HDFCBANK':2,'INFY':3,'SBIN':8,'BHARTIARTL':1}</t>
   </si>
   <si>
-    <t>{'HINDCOPPER':3,'ZEEL':4,'RECLTD':5,'RBLBANK':2,'INDIACEM':2}</t>
-  </si>
-  <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>{'HINDCOPPER':2,'ZEEL':4,'RECLTD:3,'RBLBANK':2,'INDIACEM':2}</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -470,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murar\Downloads\Freelancing\Short-Straddle-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6024DCE-8EBA-4BDF-94F8-AA3F3D73F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B73D3-AE4C-4170-B31F-B8A78B62DF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>{}</t>
   </si>
   <si>
-    <t>{'HINDCOPPER':2,'ZEEL':4,'RECLTD:3,'RBLBANK':2,'INDIACEM':2}</t>
+    <t>{'HINDCOPPER':2,'ZEEL':4,'RECLTD':3,'RBLBANK':2,'INDIACEM':2}</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
